--- a/Code/Results/Cases/Case_1_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6592796350685717</v>
+        <v>0.5717063509433729</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06936733585932586</v>
+        <v>0.02601838198319939</v>
       </c>
       <c r="E2">
-        <v>0.1354324741379349</v>
+        <v>0.3339158246348459</v>
       </c>
       <c r="F2">
-        <v>0.3579153345521249</v>
+        <v>0.5261359713219775</v>
       </c>
       <c r="G2">
-        <v>0.2516340387468148</v>
+        <v>0.3673729890345427</v>
       </c>
       <c r="H2">
-        <v>0.2246781810084144</v>
+        <v>0.5336062900575342</v>
       </c>
       <c r="I2">
-        <v>0.3638968933336812</v>
+        <v>0.9152935657334886</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.19751250651214</v>
+        <v>0.4097882363672909</v>
       </c>
       <c r="L2">
-        <v>0.1852813267420714</v>
+        <v>0.1290664024431436</v>
       </c>
       <c r="M2">
-        <v>0.1810335029304255</v>
+        <v>0.1445374973361986</v>
       </c>
       <c r="N2">
-        <v>0.8626251999047696</v>
+        <v>1.683992747214162</v>
       </c>
       <c r="O2">
-        <v>0.9535788727459078</v>
+        <v>1.741682129242164</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5815633538591101</v>
+        <v>0.5514134788695628</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06120180064226588</v>
+        <v>0.02332870511977347</v>
       </c>
       <c r="E3">
-        <v>0.1390473325670287</v>
+        <v>0.3363587965901265</v>
       </c>
       <c r="F3">
-        <v>0.3347471748241304</v>
+        <v>0.5239989594373426</v>
       </c>
       <c r="G3">
-        <v>0.2371512652092989</v>
+        <v>0.366673613367098</v>
       </c>
       <c r="H3">
-        <v>0.222404402246454</v>
+        <v>0.5362789586923498</v>
       </c>
       <c r="I3">
-        <v>0.3765348938318169</v>
+        <v>0.9242104491075214</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.063937869351008</v>
+        <v>0.3661955843418525</v>
       </c>
       <c r="L3">
-        <v>0.1625880587872928</v>
+        <v>0.1231675621368282</v>
       </c>
       <c r="M3">
-        <v>0.1593727357447499</v>
+        <v>0.1388970697172347</v>
       </c>
       <c r="N3">
-        <v>0.894256346470744</v>
+        <v>1.698485851323422</v>
       </c>
       <c r="O3">
-        <v>0.9178230477468361</v>
+        <v>1.745575451530414</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5340738919589683</v>
+        <v>0.5391564845256198</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05617563753308019</v>
+        <v>0.021665855915181</v>
       </c>
       <c r="E4">
-        <v>0.1413954261527488</v>
+        <v>0.3379505973158534</v>
       </c>
       <c r="F4">
-        <v>0.3211089145656345</v>
+        <v>0.5230007707294817</v>
       </c>
       <c r="G4">
-        <v>0.2287642566994847</v>
+        <v>0.366490444441915</v>
       </c>
       <c r="H4">
-        <v>0.221348503757639</v>
+        <v>0.5381370261127074</v>
       </c>
       <c r="I4">
-        <v>0.3848894321869558</v>
+        <v>0.9300508058454788</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.981694793526799</v>
+        <v>0.3392611898414941</v>
       </c>
       <c r="L4">
-        <v>0.14874791447874</v>
+        <v>0.1196012577906984</v>
       </c>
       <c r="M4">
-        <v>0.1461459378721024</v>
+        <v>0.135489337405037</v>
       </c>
       <c r="N4">
-        <v>0.9146069861580521</v>
+        <v>1.70788938456479</v>
       </c>
       <c r="O4">
-        <v>0.8976447468529045</v>
+        <v>1.748934542389591</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5147741111852611</v>
+        <v>0.5342132241287061</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0541239391661037</v>
+        <v>0.02098540377453162</v>
       </c>
       <c r="E5">
-        <v>0.1423843632575457</v>
+        <v>0.3386223969549595</v>
       </c>
       <c r="F5">
-        <v>0.3156916436319506</v>
+        <v>0.5226730333281182</v>
       </c>
       <c r="G5">
-        <v>0.2254671625007205</v>
+        <v>0.3664777329661888</v>
       </c>
       <c r="H5">
-        <v>0.2210009604426588</v>
+        <v>0.5389488514806899</v>
       </c>
       <c r="I5">
-        <v>0.3884401939420652</v>
+        <v>0.9325227367354678</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9481173086197998</v>
+        <v>0.3282435681993974</v>
       </c>
       <c r="L5">
-        <v>0.1431292617106124</v>
+        <v>0.1181620504389613</v>
       </c>
       <c r="M5">
-        <v>0.1407726321769687</v>
+        <v>0.1341147513790837</v>
       </c>
       <c r="N5">
-        <v>0.9231292435103029</v>
+        <v>1.711848409407445</v>
       </c>
       <c r="O5">
-        <v>0.8898489888384375</v>
+        <v>1.750547120673673</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5115724320431241</v>
+        <v>0.5333955297595736</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05378303497773373</v>
+        <v>0.02087224540861143</v>
       </c>
       <c r="E6">
-        <v>0.1425505050798757</v>
+        <v>0.3387353468934324</v>
       </c>
       <c r="F6">
-        <v>0.3148003866071178</v>
+        <v>0.5226233887522582</v>
       </c>
       <c r="G6">
-        <v>0.2249267882978501</v>
+        <v>0.366479363016154</v>
       </c>
       <c r="H6">
-        <v>0.2209481688267587</v>
+        <v>0.5390869571705039</v>
       </c>
       <c r="I6">
-        <v>0.3890385310775795</v>
+        <v>0.9329387537750584</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9425378476830275</v>
+        <v>0.3264116060521616</v>
       </c>
       <c r="L6">
-        <v>0.1421975132012747</v>
+        <v>0.1179239253573456</v>
       </c>
       <c r="M6">
-        <v>0.1398813624506623</v>
+        <v>0.1338873574922097</v>
       </c>
       <c r="N6">
-        <v>0.9245580760626844</v>
+        <v>1.712513476320716</v>
       </c>
       <c r="O6">
-        <v>0.8885797473035097</v>
+        <v>1.750829613103519</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5338134019046947</v>
+        <v>0.5390896084882684</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05614798222552508</v>
+        <v>0.02165669050432228</v>
       </c>
       <c r="E7">
-        <v>0.1414086337876301</v>
+        <v>0.3379595637395116</v>
       </c>
       <c r="F7">
-        <v>0.3210352960582412</v>
+        <v>0.5229960306309422</v>
       </c>
       <c r="G7">
-        <v>0.228719310609776</v>
+        <v>0.3664900222403276</v>
       </c>
       <c r="H7">
-        <v>0.2213434852621532</v>
+        <v>0.5381477533110441</v>
       </c>
       <c r="I7">
-        <v>0.3849367312887377</v>
+        <v>0.9300837708265046</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9812422169869137</v>
+        <v>0.3391127700161576</v>
       </c>
       <c r="L7">
-        <v>0.1486720559106942</v>
+        <v>0.1195817909418011</v>
       </c>
       <c r="M7">
-        <v>0.1460734059934126</v>
+        <v>0.1354707420200896</v>
       </c>
       <c r="N7">
-        <v>0.9147209979306581</v>
+        <v>1.707942262976253</v>
       </c>
       <c r="O7">
-        <v>0.8975379065735041</v>
+        <v>1.748955303146175</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6324325402822808</v>
+        <v>0.5646675715218521</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06655423133570082</v>
+        <v>0.02509336185015343</v>
       </c>
       <c r="E8">
-        <v>0.1366520396174091</v>
+        <v>0.3347391327301961</v>
       </c>
       <c r="F8">
-        <v>0.349800677440399</v>
+        <v>0.5253340213827116</v>
       </c>
       <c r="G8">
-        <v>0.2465315159871437</v>
+        <v>0.3670807395171281</v>
       </c>
       <c r="H8">
-        <v>0.2238218462681729</v>
+        <v>0.534482822668906</v>
       </c>
       <c r="I8">
-        <v>0.3681289940741639</v>
+        <v>0.9182923186078877</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.151499777224785</v>
+        <v>0.3947928288684182</v>
       </c>
       <c r="L8">
-        <v>0.1774358845395625</v>
+        <v>0.1270210035936117</v>
       </c>
       <c r="M8">
-        <v>0.1735487059742233</v>
+        <v>0.1425812341889525</v>
       </c>
       <c r="N8">
-        <v>0.8733361162586988</v>
+        <v>1.688885275598437</v>
       </c>
       <c r="O8">
-        <v>0.9408696759481074</v>
+        <v>1.742823614711952</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8278819208292987</v>
+        <v>0.6164149941699861</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08687939882391049</v>
+        <v>0.03174122380124089</v>
       </c>
       <c r="E9">
-        <v>0.1283560835579891</v>
+        <v>0.3291503656069308</v>
       </c>
       <c r="F9">
-        <v>0.4112090470904235</v>
+        <v>0.5324069044322428</v>
       </c>
       <c r="G9">
-        <v>0.2857760348821614</v>
+        <v>0.3701932514672919</v>
       </c>
       <c r="H9">
-        <v>0.2315140068211363</v>
+        <v>0.5290150333064716</v>
       </c>
       <c r="I9">
-        <v>0.340043097361189</v>
+        <v>0.8980650835985884</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.48384827614376</v>
+        <v>0.5026200813023536</v>
       </c>
       <c r="L9">
-        <v>0.2346920805810271</v>
+        <v>0.1420465877082506</v>
       </c>
       <c r="M9">
-        <v>0.2280868468191457</v>
+        <v>0.1569602909396188</v>
       </c>
       <c r="N9">
-        <v>0.7997554210145701</v>
+        <v>1.655514542100629</v>
       </c>
       <c r="O9">
-        <v>1.040857388286824</v>
+        <v>1.738479114866692</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9731014728143634</v>
+        <v>0.6553787166891709</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1017895741456059</v>
+        <v>0.03656851318152121</v>
       </c>
       <c r="E10">
-        <v>0.1229063883961476</v>
+        <v>0.3254844383743594</v>
       </c>
       <c r="F10">
-        <v>0.4598731993895768</v>
+        <v>0.5391176530250092</v>
       </c>
       <c r="G10">
-        <v>0.3176838510453308</v>
+        <v>0.3736725713762468</v>
       </c>
       <c r="H10">
-        <v>0.2390857567172304</v>
+        <v>0.5260421525302235</v>
       </c>
       <c r="I10">
-        <v>0.3226016670694278</v>
+        <v>0.8849649023707364</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.727532770688185</v>
+        <v>0.5809836753770128</v>
       </c>
       <c r="L10">
-        <v>0.277437276442754</v>
+        <v>0.1533484368557652</v>
       </c>
       <c r="M10">
-        <v>0.2686780836002605</v>
+        <v>0.1677843700993051</v>
       </c>
       <c r="N10">
-        <v>0.7506052087943935</v>
+        <v>1.633428553208496</v>
       </c>
       <c r="O10">
-        <v>1.124820175630617</v>
+        <v>1.739964228571324</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.039604781441085</v>
+        <v>0.6733046779015979</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1085739668187244</v>
+        <v>0.03875199492772197</v>
       </c>
       <c r="E11">
-        <v>0.1205710311591943</v>
+        <v>0.3239117001942455</v>
       </c>
       <c r="F11">
-        <v>0.4828985980361153</v>
+        <v>0.5424989094437791</v>
       </c>
       <c r="G11">
-        <v>0.3329709882685989</v>
+        <v>0.3755146806855549</v>
       </c>
       <c r="H11">
-        <v>0.2429926252614791</v>
+        <v>0.5249157065181151</v>
       </c>
       <c r="I11">
-        <v>0.3154116199649017</v>
+        <v>0.8793866500021466</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.838389882546636</v>
+        <v>0.6164418072086733</v>
       </c>
       <c r="L11">
-        <v>0.2970683448298388</v>
+        <v>0.1585461599554492</v>
       </c>
       <c r="M11">
-        <v>0.2872857058439138</v>
+        <v>0.1727638021928328</v>
       </c>
       <c r="N11">
-        <v>0.7293791222178818</v>
+        <v>1.623907564846995</v>
       </c>
       <c r="O11">
-        <v>1.165612411125892</v>
+        <v>1.741654570890972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.064858770151659</v>
+        <v>0.6801212026659869</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1111438003559755</v>
+        <v>0.03957699910348822</v>
       </c>
       <c r="E12">
-        <v>0.1197076916060036</v>
+        <v>0.3233297495603358</v>
       </c>
       <c r="F12">
-        <v>0.4917555599367205</v>
+        <v>0.5438264724329329</v>
       </c>
       <c r="G12">
-        <v>0.3388799589359621</v>
+        <v>0.3762495394772145</v>
       </c>
       <c r="H12">
-        <v>0.2445425408645008</v>
+        <v>0.5245215733477409</v>
       </c>
       <c r="I12">
-        <v>0.3128004483749187</v>
+        <v>0.8773290443018773</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.880378055526819</v>
+        <v>0.6298409571638217</v>
       </c>
       <c r="L12">
-        <v>0.3045321141715931</v>
+        <v>0.1605224257849756</v>
       </c>
       <c r="M12">
-        <v>0.2943548169619277</v>
+        <v>0.1746572435127831</v>
       </c>
       <c r="N12">
-        <v>0.7215102589074611</v>
+        <v>1.620377767824021</v>
       </c>
       <c r="O12">
-        <v>1.181460492721442</v>
+        <v>1.742440459656081</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.059416614039804</v>
+        <v>0.6786518902843568</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.110590300114481</v>
+        <v>0.0393994018363486</v>
       </c>
       <c r="E13">
-        <v>0.1198926872569368</v>
+        <v>0.3234544782652566</v>
       </c>
       <c r="F13">
-        <v>0.4898417620361926</v>
+        <v>0.5435384621261292</v>
       </c>
       <c r="G13">
-        <v>0.3376018670838903</v>
+        <v>0.3760896159629823</v>
       </c>
       <c r="H13">
-        <v>0.244205538967833</v>
+        <v>0.5246050157330018</v>
       </c>
       <c r="I13">
-        <v>0.313357775383647</v>
+        <v>0.8777697518260261</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.87133461023484</v>
+        <v>0.6269564714425258</v>
       </c>
       <c r="L13">
-        <v>0.3029232754296061</v>
+        <v>0.1600964476093623</v>
       </c>
       <c r="M13">
-        <v>0.2928313045539852</v>
+        <v>0.1742491107083097</v>
       </c>
       <c r="N13">
-        <v>0.7231973423451095</v>
+        <v>1.62113461143629</v>
       </c>
       <c r="O13">
-        <v>1.178029037967008</v>
+        <v>1.742264722336472</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.04168098497604</v>
+        <v>0.6738649125711618</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1087853710138944</v>
+        <v>0.03881990547667158</v>
       </c>
       <c r="E14">
-        <v>0.1204995806341929</v>
+        <v>0.3238635501871716</v>
       </c>
       <c r="F14">
-        <v>0.4836244453087559</v>
+        <v>0.5426071842866378</v>
       </c>
       <c r="G14">
-        <v>0.333454662984991</v>
+        <v>0.3755743905899607</v>
       </c>
       <c r="H14">
-        <v>0.2431187018747636</v>
+        <v>0.5248826314006863</v>
       </c>
       <c r="I14">
-        <v>0.3151945350432754</v>
+        <v>0.8792162723641788</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.841844044043029</v>
+        <v>0.6175447304365775</v>
       </c>
       <c r="L14">
-        <v>0.2976817754569652</v>
+        <v>0.1587085888581043</v>
       </c>
       <c r="M14">
-        <v>0.2878668149689503</v>
+        <v>0.1729194204752957</v>
       </c>
       <c r="N14">
-        <v>0.7287283229538843</v>
+        <v>1.623615651566073</v>
       </c>
       <c r="O14">
-        <v>1.166908043691222</v>
+        <v>1.74171630526854</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.030826814067154</v>
+        <v>0.6709364257226014</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1076799100484322</v>
+        <v>0.038464707358699</v>
       </c>
       <c r="E15">
-        <v>0.1208740667465094</v>
+        <v>0.3241158900393</v>
       </c>
       <c r="F15">
-        <v>0.4798344062145645</v>
+        <v>0.5420428881276322</v>
       </c>
       <c r="G15">
-        <v>0.3309302935470555</v>
+        <v>0.3752636566068617</v>
       </c>
       <c r="H15">
-        <v>0.2424622817345181</v>
+        <v>0.5250569002101457</v>
       </c>
       <c r="I15">
-        <v>0.3163342679870418</v>
+        <v>0.8801094377408347</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.823781652750142</v>
+        <v>0.6117760881539311</v>
       </c>
       <c r="L15">
-        <v>0.2944751973055304</v>
+        <v>0.1578595237636335</v>
       </c>
       <c r="M15">
-        <v>0.2848289633193133</v>
+        <v>0.1721059633643449</v>
       </c>
       <c r="N15">
-        <v>0.7321384037095697</v>
+        <v>1.625145203517302</v>
       </c>
       <c r="O15">
-        <v>1.160149171395972</v>
+        <v>1.741399366671061</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9687648159967637</v>
+        <v>0.6542112118000318</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1013462731864223</v>
+        <v>0.03642556313812406</v>
       </c>
       <c r="E16">
-        <v>0.12306193062728</v>
+        <v>0.3255891272016589</v>
       </c>
       <c r="F16">
-        <v>0.4583871492208971</v>
+        <v>0.5389032831565288</v>
       </c>
       <c r="G16">
-        <v>0.3167010981795499</v>
+        <v>0.3735574038127112</v>
       </c>
       <c r="H16">
-        <v>0.2388400734185439</v>
+        <v>0.526120309521005</v>
       </c>
       <c r="I16">
-        <v>0.323086910437393</v>
+        <v>0.8853371190855235</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.720288782082804</v>
+        <v>0.5786625165006853</v>
       </c>
       <c r="L16">
-        <v>0.2761583494506681</v>
+        <v>0.1530098794344781</v>
       </c>
       <c r="M16">
-        <v>0.2674650939174619</v>
+        <v>0.1674600571702172</v>
       </c>
       <c r="N16">
-        <v>0.7520156910091274</v>
+        <v>1.634061353187253</v>
       </c>
       <c r="O16">
-        <v>1.122208881800219</v>
+        <v>1.739874169336503</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9308099306403221</v>
+        <v>0.6440019494504554</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09746156240959181</v>
+        <v>0.03517139110692113</v>
       </c>
       <c r="E17">
-        <v>0.1244411666665055</v>
+        <v>0.3265171930632196</v>
       </c>
       <c r="F17">
-        <v>0.4454643384150287</v>
+        <v>0.5370613155326041</v>
       </c>
       <c r="G17">
-        <v>0.30817597194239</v>
+        <v>0.3725770973731244</v>
       </c>
       <c r="H17">
-        <v>0.2367391622691457</v>
+        <v>0.5268304997514122</v>
       </c>
       <c r="I17">
-        <v>0.3274231904045024</v>
+        <v>0.8886417073490875</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.656806048523521</v>
+        <v>0.558299234980268</v>
       </c>
       <c r="L17">
-        <v>0.2649713983859812</v>
+        <v>0.1500491559436057</v>
       </c>
       <c r="M17">
-        <v>0.2568510211500232</v>
+        <v>0.1646240584914729</v>
       </c>
       <c r="N17">
-        <v>0.7645041106537676</v>
+        <v>1.639665817732347</v>
       </c>
       <c r="O17">
-        <v>1.09961799721728</v>
+        <v>1.739198323356504</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9090204614109609</v>
+        <v>0.6381488211098088</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09522730669040413</v>
+        <v>0.03444885252638841</v>
       </c>
       <c r="E18">
-        <v>0.1252479747669781</v>
+        <v>0.3270599276165704</v>
       </c>
       <c r="F18">
-        <v>0.4381144106056141</v>
+        <v>0.5360327898414923</v>
       </c>
       <c r="G18">
-        <v>0.303344648982204</v>
+        <v>0.3720376624086157</v>
       </c>
       <c r="H18">
-        <v>0.2355740500039616</v>
+        <v>0.5272602518739546</v>
       </c>
       <c r="I18">
-        <v>0.3299870623580503</v>
+        <v>0.8905782912299784</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.620292276582433</v>
+        <v>0.5465689897573327</v>
       </c>
       <c r="L18">
-        <v>0.2585542736913311</v>
+        <v>0.1483515469749932</v>
       </c>
       <c r="M18">
-        <v>0.2507593498038823</v>
+        <v>0.1629980999394292</v>
       </c>
       <c r="N18">
-        <v>0.7717933390860736</v>
+        <v>1.642938873559832</v>
       </c>
       <c r="O18">
-        <v>1.086867037284975</v>
+        <v>1.738905116111454</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9016497858493437</v>
+        <v>0.6361703279565063</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09447083344010565</v>
+        <v>0.03420401326690836</v>
       </c>
       <c r="E19">
-        <v>0.1255234559820337</v>
+        <v>0.3272452240369415</v>
       </c>
       <c r="F19">
-        <v>0.4356397970162931</v>
+        <v>0.5356898627096029</v>
       </c>
       <c r="G19">
-        <v>0.3017209630258577</v>
+        <v>0.3718592117227359</v>
       </c>
       <c r="H19">
-        <v>0.2351868784543711</v>
+        <v>0.5274094134826584</v>
       </c>
       <c r="I19">
-        <v>0.3308669917692484</v>
+        <v>0.8912401476176193</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.607929062190493</v>
+        <v>0.5425942924987339</v>
       </c>
       <c r="L19">
-        <v>0.2563844260663473</v>
+        <v>0.1477776831787736</v>
       </c>
       <c r="M19">
-        <v>0.2486990238490847</v>
+        <v>0.1624484814165932</v>
       </c>
       <c r="N19">
-        <v>0.7742794082063824</v>
+        <v>1.644055579986652</v>
       </c>
       <c r="O19">
-        <v>1.082590656642395</v>
+        <v>1.738822250947578</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9348459816277739</v>
+        <v>0.6450867837692442</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09787507987736177</v>
+        <v>0.03530502143966885</v>
       </c>
       <c r="E20">
-        <v>0.1242929441843872</v>
+        <v>0.3264174743332307</v>
       </c>
       <c r="F20">
-        <v>0.4468313394437331</v>
+        <v>0.537254196074386</v>
       </c>
       <c r="G20">
-        <v>0.3090759598636055</v>
+        <v>0.3726789261936574</v>
       </c>
       <c r="H20">
-        <v>0.236958300881696</v>
+        <v>0.5267526979209549</v>
       </c>
       <c r="I20">
-        <v>0.3269543341123864</v>
+        <v>0.8882862159650209</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.66356385359262</v>
+        <v>0.5604687914070041</v>
       </c>
       <c r="L20">
-        <v>0.2661604542660854</v>
+        <v>0.1503637801714603</v>
       </c>
       <c r="M20">
-        <v>0.2579795182972404</v>
+        <v>0.1649254148441308</v>
       </c>
       <c r="N20">
-        <v>0.7631636603118679</v>
+        <v>1.639064088550946</v>
       </c>
       <c r="O20">
-        <v>1.101997520830196</v>
+        <v>1.739260383119159</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.046888394129581</v>
+        <v>0.6752701990774028</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1093154985601075</v>
+        <v>0.03899016766244756</v>
       </c>
       <c r="E21">
-        <v>0.1203207483653834</v>
+        <v>0.3237430267366017</v>
       </c>
       <c r="F21">
-        <v>0.4854468005127828</v>
+        <v>0.5428794440754316</v>
       </c>
       <c r="G21">
-        <v>0.3346694642802817</v>
+        <v>0.375724712700034</v>
       </c>
       <c r="H21">
-        <v>0.243435986966162</v>
+        <v>0.5248002093655515</v>
       </c>
       <c r="I21">
-        <v>0.3146519697066026</v>
+        <v>0.8787899084537081</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.850505823810408</v>
+        <v>0.6203099550276079</v>
       </c>
       <c r="L21">
-        <v>0.2992204932469207</v>
+        <v>0.1591160204106359</v>
       </c>
       <c r="M21">
-        <v>0.2893243677036921</v>
+        <v>0.1733097711361538</v>
       </c>
       <c r="N21">
-        <v>0.7270991029862692</v>
+        <v>1.622884858702182</v>
       </c>
       <c r="O21">
-        <v>1.170163440795534</v>
+        <v>1.741873432910864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.120529835990396</v>
+        <v>0.6951617974943929</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1167969826004054</v>
+        <v>0.04138792157432647</v>
       </c>
       <c r="E22">
-        <v>0.1178473162071922</v>
+        <v>0.3220744400723587</v>
       </c>
       <c r="F22">
-        <v>0.511492200214299</v>
+        <v>0.5468306819330166</v>
       </c>
       <c r="G22">
-        <v>0.3521006936432656</v>
+        <v>0.377932674667548</v>
       </c>
       <c r="H22">
-        <v>0.2480822893892025</v>
+        <v>0.5237131290091952</v>
       </c>
       <c r="I22">
-        <v>0.3072640890778899</v>
+        <v>0.8729026711131382</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.972739984653998</v>
+        <v>0.6592556127808393</v>
       </c>
       <c r="L22">
-        <v>0.3210030768419898</v>
+        <v>0.1648826959495295</v>
       </c>
       <c r="M22">
-        <v>0.3099441603941955</v>
+        <v>0.1788350546534332</v>
       </c>
       <c r="N22">
-        <v>0.7045169353428342</v>
+        <v>1.612751398853675</v>
       </c>
       <c r="O22">
-        <v>1.217064748967687</v>
+        <v>1.744430943112889</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.081185582000074</v>
+        <v>0.6845303705126469</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1128033923277485</v>
+        <v>0.04010918734162772</v>
       </c>
       <c r="E23">
-        <v>0.119156097076055</v>
+        <v>0.32295775055674</v>
       </c>
       <c r="F23">
-        <v>0.4975138724174784</v>
+        <v>0.5446967145265802</v>
       </c>
       <c r="G23">
-        <v>0.3427297438366708</v>
+        <v>0.3767343559356391</v>
       </c>
       <c r="H23">
-        <v>0.2455633298307021</v>
+        <v>0.5242760524744767</v>
       </c>
       <c r="I23">
-        <v>0.311145885844887</v>
+        <v>0.8760156122834886</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.907493163597337</v>
+        <v>0.6384848441245197</v>
       </c>
       <c r="L23">
-        <v>0.3093601123958791</v>
+        <v>0.1618006894324537</v>
       </c>
       <c r="M23">
-        <v>0.2989259136842435</v>
+        <v>0.1758819797384987</v>
       </c>
       <c r="N23">
-        <v>0.7164769433657554</v>
+        <v>1.618119517619249</v>
       </c>
       <c r="O23">
-        <v>1.191808028129856</v>
+        <v>1.742988244195459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9330211860114446</v>
+        <v>0.6445962793190745</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09768813141954524</v>
+        <v>0.03524461183008043</v>
       </c>
       <c r="E24">
-        <v>0.1243599124017463</v>
+        <v>0.3264625285832112</v>
       </c>
       <c r="F24">
-        <v>0.4462130711965457</v>
+        <v>0.5371668999390096</v>
       </c>
       <c r="G24">
-        <v>0.3086688583235144</v>
+        <v>0.372632814139223</v>
       </c>
       <c r="H24">
-        <v>0.2368590955196339</v>
+        <v>0.5267878052956263</v>
       </c>
       <c r="I24">
-        <v>0.3271660835859826</v>
+        <v>0.8884468192003467</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.660508702576919</v>
+        <v>0.5594880069149895</v>
       </c>
       <c r="L24">
-        <v>0.2656228374784604</v>
+        <v>0.1502215243756382</v>
       </c>
       <c r="M24">
-        <v>0.2574692922043162</v>
+        <v>0.1647891576255205</v>
       </c>
       <c r="N24">
-        <v>0.7637693373982195</v>
+        <v>1.639335971529004</v>
       </c>
       <c r="O24">
-        <v>1.10092100255946</v>
+        <v>1.739232028898101</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7747505405457957</v>
+        <v>0.6022482873418369</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08138691866321324</v>
+        <v>0.02995270840730768</v>
       </c>
       <c r="E25">
-        <v>0.130488253111086</v>
+        <v>0.3305847843904646</v>
       </c>
       <c r="F25">
-        <v>0.39401118247536</v>
+        <v>0.5302273898821994</v>
       </c>
       <c r="G25">
-        <v>0.2746529325213558</v>
+        <v>0.3691418976346128</v>
       </c>
       <c r="H25">
-        <v>0.2291104907270807</v>
+        <v>0.5303105559065102</v>
       </c>
       <c r="I25">
-        <v>0.3470969697049497</v>
+        <v>0.9032275481610483</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.394059051466542</v>
+        <v>0.4735984941340803</v>
       </c>
       <c r="L25">
-        <v>0.2190956501914343</v>
+        <v>0.1379353684738192</v>
       </c>
       <c r="M25">
-        <v>0.2132502372171636</v>
+        <v>0.1530243452957123</v>
       </c>
       <c r="N25">
-        <v>0.8188207787960877</v>
+        <v>1.664114718373067</v>
       </c>
       <c r="O25">
-        <v>1.012065701017676</v>
+        <v>1.738832734297404</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5717063509433729</v>
+        <v>0.6592796350685717</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02601838198319939</v>
+        <v>0.06936733585948218</v>
       </c>
       <c r="E2">
-        <v>0.3339158246348459</v>
+        <v>0.1354324741379758</v>
       </c>
       <c r="F2">
-        <v>0.5261359713219775</v>
+        <v>0.3579153345521178</v>
       </c>
       <c r="G2">
-        <v>0.3673729890345427</v>
+        <v>0.2516340387468006</v>
       </c>
       <c r="H2">
-        <v>0.5336062900575342</v>
+        <v>0.2246781810085281</v>
       </c>
       <c r="I2">
-        <v>0.9152935657334886</v>
+        <v>0.3638968933336901</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4097882363672909</v>
+        <v>1.197512506511998</v>
       </c>
       <c r="L2">
-        <v>0.1290664024431436</v>
+        <v>0.1852813267421425</v>
       </c>
       <c r="M2">
-        <v>0.1445374973361986</v>
+        <v>0.1810335029304326</v>
       </c>
       <c r="N2">
-        <v>1.683992747214162</v>
+        <v>0.8626251999047554</v>
       </c>
       <c r="O2">
-        <v>1.741682129242164</v>
+        <v>0.9535788727458936</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5514134788695628</v>
+        <v>0.5815633538591101</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02332870511977347</v>
+        <v>0.06120180064215219</v>
       </c>
       <c r="E3">
-        <v>0.3363587965901265</v>
+        <v>0.1390473325669968</v>
       </c>
       <c r="F3">
-        <v>0.5239989594373426</v>
+        <v>0.3347471748241304</v>
       </c>
       <c r="G3">
-        <v>0.366673613367098</v>
+        <v>0.237151265209306</v>
       </c>
       <c r="H3">
-        <v>0.5362789586923498</v>
+        <v>0.222404402246454</v>
       </c>
       <c r="I3">
-        <v>0.9242104491075214</v>
+        <v>0.3765348938317956</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3661955843418525</v>
+        <v>1.063937869351122</v>
       </c>
       <c r="L3">
-        <v>0.1231675621368282</v>
+        <v>0.1625880587873567</v>
       </c>
       <c r="M3">
-        <v>0.1388970697172347</v>
+        <v>0.1593727357447428</v>
       </c>
       <c r="N3">
-        <v>1.698485851323422</v>
+        <v>0.8942563464706836</v>
       </c>
       <c r="O3">
-        <v>1.745575451530414</v>
+        <v>0.9178230477468503</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5391564845256198</v>
+        <v>0.5340738919589398</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.021665855915181</v>
+        <v>0.05617563753307309</v>
       </c>
       <c r="E4">
-        <v>0.3379505973158534</v>
+        <v>0.1413954261528079</v>
       </c>
       <c r="F4">
-        <v>0.5230007707294817</v>
+        <v>0.3211089145656274</v>
       </c>
       <c r="G4">
-        <v>0.366490444441915</v>
+        <v>0.2287642566994776</v>
       </c>
       <c r="H4">
-        <v>0.5381370261127074</v>
+        <v>0.221348503757639</v>
       </c>
       <c r="I4">
-        <v>0.9300508058454788</v>
+        <v>0.3848894321869381</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3392611898414941</v>
+        <v>0.981694793526799</v>
       </c>
       <c r="L4">
-        <v>0.1196012577906984</v>
+        <v>0.1487479144787329</v>
       </c>
       <c r="M4">
-        <v>0.135489337405037</v>
+        <v>0.1461459378720917</v>
       </c>
       <c r="N4">
-        <v>1.70788938456479</v>
+        <v>0.9146069861580592</v>
       </c>
       <c r="O4">
-        <v>1.748934542389591</v>
+        <v>0.8976447468529045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5342132241287061</v>
+        <v>0.5147741111852611</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02098540377453162</v>
+        <v>0.05412393916617475</v>
       </c>
       <c r="E5">
-        <v>0.3386223969549595</v>
+        <v>0.142384363257579</v>
       </c>
       <c r="F5">
-        <v>0.5226730333281182</v>
+        <v>0.3156916436319648</v>
       </c>
       <c r="G5">
-        <v>0.3664777329661888</v>
+        <v>0.2254671625006495</v>
       </c>
       <c r="H5">
-        <v>0.5389488514806899</v>
+        <v>0.2210009604426517</v>
       </c>
       <c r="I5">
-        <v>0.9325227367354678</v>
+        <v>0.3884401939420634</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3282435681993974</v>
+        <v>0.948117308619814</v>
       </c>
       <c r="L5">
-        <v>0.1181620504389613</v>
+        <v>0.1431292617106052</v>
       </c>
       <c r="M5">
-        <v>0.1341147513790837</v>
+        <v>0.1407726321769651</v>
       </c>
       <c r="N5">
-        <v>1.711848409407445</v>
+        <v>0.9231292435102922</v>
       </c>
       <c r="O5">
-        <v>1.750547120673673</v>
+        <v>0.8898489888384233</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5333955297595736</v>
+        <v>0.5115724320430957</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02087224540861143</v>
+        <v>0.05378303497773373</v>
       </c>
       <c r="E6">
-        <v>0.3387353468934324</v>
+        <v>0.1425505050798517</v>
       </c>
       <c r="F6">
-        <v>0.5226233887522582</v>
+        <v>0.3148003866071107</v>
       </c>
       <c r="G6">
-        <v>0.366479363016154</v>
+        <v>0.2249267882977932</v>
       </c>
       <c r="H6">
-        <v>0.5390869571705039</v>
+        <v>0.2209481688267445</v>
       </c>
       <c r="I6">
-        <v>0.9329387537750584</v>
+        <v>0.3890385310775777</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3264116060521616</v>
+        <v>0.9425378476830701</v>
       </c>
       <c r="L6">
-        <v>0.1179239253573456</v>
+        <v>0.1421975132011539</v>
       </c>
       <c r="M6">
-        <v>0.1338873574922097</v>
+        <v>0.1398813624506623</v>
       </c>
       <c r="N6">
-        <v>1.712513476320716</v>
+        <v>0.9245580760626773</v>
       </c>
       <c r="O6">
-        <v>1.750829613103519</v>
+        <v>0.888579747303524</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5390896084882684</v>
+        <v>0.5338134019048368</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02165669050432228</v>
+        <v>0.05614798222544692</v>
       </c>
       <c r="E7">
-        <v>0.3379595637395116</v>
+        <v>0.1414086337876355</v>
       </c>
       <c r="F7">
-        <v>0.5229960306309422</v>
+        <v>0.3210352960582554</v>
       </c>
       <c r="G7">
-        <v>0.3664900222403276</v>
+        <v>0.228719310609705</v>
       </c>
       <c r="H7">
-        <v>0.5381477533110441</v>
+        <v>0.2213434852621461</v>
       </c>
       <c r="I7">
-        <v>0.9300837708265046</v>
+        <v>0.3849367312887377</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3391127700161576</v>
+        <v>0.9812422169867148</v>
       </c>
       <c r="L7">
-        <v>0.1195817909418011</v>
+        <v>0.1486720559108221</v>
       </c>
       <c r="M7">
-        <v>0.1354707420200896</v>
+        <v>0.1460734059934268</v>
       </c>
       <c r="N7">
-        <v>1.707942262976253</v>
+        <v>0.9147209979305977</v>
       </c>
       <c r="O7">
-        <v>1.748955303146175</v>
+        <v>0.8975379065734472</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5646675715218521</v>
+        <v>0.6324325402822524</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02509336185015343</v>
+        <v>0.06655423133585714</v>
       </c>
       <c r="E8">
-        <v>0.3347391327301961</v>
+        <v>0.1366520396173865</v>
       </c>
       <c r="F8">
-        <v>0.5253340213827116</v>
+        <v>0.3498006774403777</v>
       </c>
       <c r="G8">
-        <v>0.3670807395171281</v>
+        <v>0.2465315159871437</v>
       </c>
       <c r="H8">
-        <v>0.534482822668906</v>
+        <v>0.22382184626818</v>
       </c>
       <c r="I8">
-        <v>0.9182923186078877</v>
+        <v>0.3681289940741621</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3947928288684182</v>
+        <v>1.151499777224785</v>
       </c>
       <c r="L8">
-        <v>0.1270210035936117</v>
+        <v>0.1774358845396193</v>
       </c>
       <c r="M8">
-        <v>0.1425812341889525</v>
+        <v>0.173548705974234</v>
       </c>
       <c r="N8">
-        <v>1.688885275598437</v>
+        <v>0.8733361162586277</v>
       </c>
       <c r="O8">
-        <v>1.742823614711952</v>
+        <v>0.9408696759480648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6164149941699861</v>
+        <v>0.8278819208292703</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03174122380124089</v>
+        <v>0.08687939882395312</v>
       </c>
       <c r="E9">
-        <v>0.3291503656069308</v>
+        <v>0.1283560835579864</v>
       </c>
       <c r="F9">
-        <v>0.5324069044322428</v>
+        <v>0.4112090470904093</v>
       </c>
       <c r="G9">
-        <v>0.3701932514672919</v>
+        <v>0.2857760348821614</v>
       </c>
       <c r="H9">
-        <v>0.5290150333064716</v>
+        <v>0.2315140068210226</v>
       </c>
       <c r="I9">
-        <v>0.8980650835985884</v>
+        <v>0.3400430973612032</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5026200813023536</v>
+        <v>1.48384827614376</v>
       </c>
       <c r="L9">
-        <v>0.1420465877082506</v>
+        <v>0.2346920805809987</v>
       </c>
       <c r="M9">
-        <v>0.1569602909396188</v>
+        <v>0.2280868468191315</v>
       </c>
       <c r="N9">
-        <v>1.655514542100629</v>
+        <v>0.799755421014563</v>
       </c>
       <c r="O9">
-        <v>1.738479114866692</v>
+        <v>1.040857388286824</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6553787166891709</v>
+        <v>0.9731014728145908</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03656851318152121</v>
+        <v>0.101789574145748</v>
       </c>
       <c r="E10">
-        <v>0.3254844383743594</v>
+        <v>0.1229063883961485</v>
       </c>
       <c r="F10">
-        <v>0.5391176530250092</v>
+        <v>0.459873199389591</v>
       </c>
       <c r="G10">
-        <v>0.3736725713762468</v>
+        <v>0.317683851045345</v>
       </c>
       <c r="H10">
-        <v>0.5260421525302235</v>
+        <v>0.2390857567172162</v>
       </c>
       <c r="I10">
-        <v>0.8849649023707364</v>
+        <v>0.3226016670694243</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5809836753770128</v>
+        <v>1.727532770688157</v>
       </c>
       <c r="L10">
-        <v>0.1533484368557652</v>
+        <v>0.2774372764427966</v>
       </c>
       <c r="M10">
-        <v>0.1677843700993051</v>
+        <v>0.2686780836002676</v>
       </c>
       <c r="N10">
-        <v>1.633428553208496</v>
+        <v>0.750605208794326</v>
       </c>
       <c r="O10">
-        <v>1.739964228571324</v>
+        <v>1.124820175630646</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6733046779015979</v>
+        <v>1.039604781440886</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03875199492772197</v>
+        <v>0.1085739668186818</v>
       </c>
       <c r="E11">
-        <v>0.3239117001942455</v>
+        <v>0.1205710311591988</v>
       </c>
       <c r="F11">
-        <v>0.5424989094437791</v>
+        <v>0.4828985980361153</v>
       </c>
       <c r="G11">
-        <v>0.3755146806855549</v>
+        <v>0.3329709882685989</v>
       </c>
       <c r="H11">
-        <v>0.5249157065181151</v>
+        <v>0.2429926252614791</v>
       </c>
       <c r="I11">
-        <v>0.8793866500021466</v>
+        <v>0.315411619964916</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6164418072086733</v>
+        <v>1.838389882546636</v>
       </c>
       <c r="L11">
-        <v>0.1585461599554492</v>
+        <v>0.2970683448297677</v>
       </c>
       <c r="M11">
-        <v>0.1727638021928328</v>
+        <v>0.2872857058439138</v>
       </c>
       <c r="N11">
-        <v>1.623907564846995</v>
+        <v>0.7293791222179316</v>
       </c>
       <c r="O11">
-        <v>1.741654570890972</v>
+        <v>1.165612411125892</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6801212026659869</v>
+        <v>1.064858770151773</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03957699910348822</v>
+        <v>0.111143800355876</v>
       </c>
       <c r="E12">
-        <v>0.3233297495603358</v>
+        <v>0.1197076916060187</v>
       </c>
       <c r="F12">
-        <v>0.5438264724329329</v>
+        <v>0.4917555599367205</v>
       </c>
       <c r="G12">
-        <v>0.3762495394772145</v>
+        <v>0.3388799589359053</v>
       </c>
       <c r="H12">
-        <v>0.5245215733477409</v>
+        <v>0.244542540864515</v>
       </c>
       <c r="I12">
-        <v>0.8773290443018773</v>
+        <v>0.312800448374901</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6298409571638217</v>
+        <v>1.880378055526876</v>
       </c>
       <c r="L12">
-        <v>0.1605224257849756</v>
+        <v>0.3045321141714794</v>
       </c>
       <c r="M12">
-        <v>0.1746572435127831</v>
+        <v>0.2943548169619419</v>
       </c>
       <c r="N12">
-        <v>1.620377767824021</v>
+        <v>0.7215102589074505</v>
       </c>
       <c r="O12">
-        <v>1.742440459656081</v>
+        <v>1.181460492721413</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6786518902843568</v>
+        <v>1.059416614039833</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0393994018363486</v>
+        <v>0.11059030011441</v>
       </c>
       <c r="E13">
-        <v>0.3234544782652566</v>
+        <v>0.119892687256911</v>
       </c>
       <c r="F13">
-        <v>0.5435384621261292</v>
+        <v>0.489841762036221</v>
       </c>
       <c r="G13">
-        <v>0.3760896159629823</v>
+        <v>0.3376018670839613</v>
       </c>
       <c r="H13">
-        <v>0.5246050157330018</v>
+        <v>0.2442055389677193</v>
       </c>
       <c r="I13">
-        <v>0.8777697518260261</v>
+        <v>0.3133577753836292</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6269564714425258</v>
+        <v>1.871334610234982</v>
       </c>
       <c r="L13">
-        <v>0.1600964476093623</v>
+        <v>0.3029232754296771</v>
       </c>
       <c r="M13">
-        <v>0.1742491107083097</v>
+        <v>0.2928313045539781</v>
       </c>
       <c r="N13">
-        <v>1.62113461143629</v>
+        <v>0.7231973423451059</v>
       </c>
       <c r="O13">
-        <v>1.742264722336472</v>
+        <v>1.178029037967008</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6738649125711618</v>
+        <v>1.041680984976153</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03881990547667158</v>
+        <v>0.1087853710139939</v>
       </c>
       <c r="E14">
-        <v>0.3238635501871716</v>
+        <v>0.120499580634239</v>
       </c>
       <c r="F14">
-        <v>0.5426071842866378</v>
+        <v>0.4836244453087701</v>
       </c>
       <c r="G14">
-        <v>0.3755743905899607</v>
+        <v>0.3334546629849342</v>
       </c>
       <c r="H14">
-        <v>0.5248826314006863</v>
+        <v>0.2431187018747636</v>
       </c>
       <c r="I14">
-        <v>0.8792162723641788</v>
+        <v>0.3151945350432754</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6175447304365775</v>
+        <v>1.841844044043114</v>
       </c>
       <c r="L14">
-        <v>0.1587085888581043</v>
+        <v>0.2976817754569794</v>
       </c>
       <c r="M14">
-        <v>0.1729194204752957</v>
+        <v>0.2878668149689574</v>
       </c>
       <c r="N14">
-        <v>1.623615651566073</v>
+        <v>0.7287283229539341</v>
       </c>
       <c r="O14">
-        <v>1.74171630526854</v>
+        <v>1.166908043691166</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6709364257226014</v>
+        <v>1.030826814067268</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.038464707358699</v>
+        <v>0.1076799100483328</v>
       </c>
       <c r="E15">
-        <v>0.3241158900393</v>
+        <v>0.1208740667465253</v>
       </c>
       <c r="F15">
-        <v>0.5420428881276322</v>
+        <v>0.4798344062145645</v>
       </c>
       <c r="G15">
-        <v>0.3752636566068617</v>
+        <v>0.3309302935469844</v>
       </c>
       <c r="H15">
-        <v>0.5250569002101457</v>
+        <v>0.2424622817344044</v>
       </c>
       <c r="I15">
-        <v>0.8801094377408347</v>
+        <v>0.3163342679870453</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6117760881539311</v>
+        <v>1.823781652750029</v>
       </c>
       <c r="L15">
-        <v>0.1578595237636335</v>
+        <v>0.2944751973055446</v>
       </c>
       <c r="M15">
-        <v>0.1721059633643449</v>
+        <v>0.284828963319292</v>
       </c>
       <c r="N15">
-        <v>1.625145203517302</v>
+        <v>0.7321384037095662</v>
       </c>
       <c r="O15">
-        <v>1.741399366671061</v>
+        <v>1.160149171395915</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6542112118000318</v>
+        <v>0.9687648159967637</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03642556313812406</v>
+        <v>0.1013462731864152</v>
       </c>
       <c r="E16">
-        <v>0.3255891272016589</v>
+        <v>0.1230619306272525</v>
       </c>
       <c r="F16">
-        <v>0.5389032831565288</v>
+        <v>0.4583871492208971</v>
       </c>
       <c r="G16">
-        <v>0.3735574038127112</v>
+        <v>0.3167010981795499</v>
       </c>
       <c r="H16">
-        <v>0.526120309521005</v>
+        <v>0.2388400734185154</v>
       </c>
       <c r="I16">
-        <v>0.8853371190855235</v>
+        <v>0.3230869104374001</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5786625165006853</v>
+        <v>1.720288782082974</v>
       </c>
       <c r="L16">
-        <v>0.1530098794344781</v>
+        <v>0.2761583494506112</v>
       </c>
       <c r="M16">
-        <v>0.1674600571702172</v>
+        <v>0.2674650939174441</v>
       </c>
       <c r="N16">
-        <v>1.634061353187253</v>
+        <v>0.7520156910091202</v>
       </c>
       <c r="O16">
-        <v>1.739874169336503</v>
+        <v>1.122208881800276</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6440019494504554</v>
+        <v>0.9308099306402653</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03517139110692113</v>
+        <v>0.0974615624097126</v>
       </c>
       <c r="E17">
-        <v>0.3265171930632196</v>
+        <v>0.1244411666665082</v>
       </c>
       <c r="F17">
-        <v>0.5370613155326041</v>
+        <v>0.4454643384150287</v>
       </c>
       <c r="G17">
-        <v>0.3725770973731244</v>
+        <v>0.3081759719424042</v>
       </c>
       <c r="H17">
-        <v>0.5268304997514122</v>
+        <v>0.2367391622691457</v>
       </c>
       <c r="I17">
-        <v>0.8886417073490875</v>
+        <v>0.3274231904045237</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.558299234980268</v>
+        <v>1.656806048523521</v>
       </c>
       <c r="L17">
-        <v>0.1500491559436057</v>
+        <v>0.2649713983859527</v>
       </c>
       <c r="M17">
-        <v>0.1646240584914729</v>
+        <v>0.2568510211500232</v>
       </c>
       <c r="N17">
-        <v>1.639665817732347</v>
+        <v>0.7645041106537711</v>
       </c>
       <c r="O17">
-        <v>1.739198323356504</v>
+        <v>1.09961799721728</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6381488211098088</v>
+        <v>0.9090204614110746</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03444885252638841</v>
+        <v>0.09522730669028334</v>
       </c>
       <c r="E18">
-        <v>0.3270599276165704</v>
+        <v>0.1252479747669684</v>
       </c>
       <c r="F18">
-        <v>0.5360327898414923</v>
+        <v>0.4381144106056141</v>
       </c>
       <c r="G18">
-        <v>0.3720376624086157</v>
+        <v>0.3033446489820903</v>
       </c>
       <c r="H18">
-        <v>0.5272602518739546</v>
+        <v>0.2355740500040753</v>
       </c>
       <c r="I18">
-        <v>0.8905782912299784</v>
+        <v>0.3299870623580539</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5465689897573327</v>
+        <v>1.620292276582518</v>
       </c>
       <c r="L18">
-        <v>0.1483515469749932</v>
+        <v>0.2585542736913027</v>
       </c>
       <c r="M18">
-        <v>0.1629980999394292</v>
+        <v>0.2507593498038645</v>
       </c>
       <c r="N18">
-        <v>1.642938873559832</v>
+        <v>0.7717933390860772</v>
       </c>
       <c r="O18">
-        <v>1.738905116111454</v>
+        <v>1.086867037285032</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6361703279565063</v>
+        <v>0.9016497858494574</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03420401326690836</v>
+        <v>0.09447083344026197</v>
       </c>
       <c r="E19">
-        <v>0.3272452240369415</v>
+        <v>0.1255234559820098</v>
       </c>
       <c r="F19">
-        <v>0.5356898627096029</v>
+        <v>0.435639797016286</v>
       </c>
       <c r="G19">
-        <v>0.3718592117227359</v>
+        <v>0.3017209630258861</v>
       </c>
       <c r="H19">
-        <v>0.5274094134826584</v>
+        <v>0.2351868784543711</v>
       </c>
       <c r="I19">
-        <v>0.8912401476176193</v>
+        <v>0.3308669917692484</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5425942924987339</v>
+        <v>1.607929062190465</v>
       </c>
       <c r="L19">
-        <v>0.1477776831787736</v>
+        <v>0.2563844260663615</v>
       </c>
       <c r="M19">
-        <v>0.1624484814165932</v>
+        <v>0.2486990238490776</v>
       </c>
       <c r="N19">
-        <v>1.644055579986652</v>
+        <v>0.7742794082063185</v>
       </c>
       <c r="O19">
-        <v>1.738822250947578</v>
+        <v>1.082590656642338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6450867837692442</v>
+        <v>0.9348459816278876</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03530502143966885</v>
+        <v>0.0978750798775323</v>
       </c>
       <c r="E20">
-        <v>0.3264174743332307</v>
+        <v>0.124292944184357</v>
       </c>
       <c r="F20">
-        <v>0.537254196074386</v>
+        <v>0.4468313394437402</v>
       </c>
       <c r="G20">
-        <v>0.3726789261936574</v>
+        <v>0.3090759598636055</v>
       </c>
       <c r="H20">
-        <v>0.5267526979209549</v>
+        <v>0.236958300881696</v>
       </c>
       <c r="I20">
-        <v>0.8882862159650209</v>
+        <v>0.3269543341123899</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5604687914070041</v>
+        <v>1.663563853592706</v>
       </c>
       <c r="L20">
-        <v>0.1503637801714603</v>
+        <v>0.2661604542660996</v>
       </c>
       <c r="M20">
-        <v>0.1649254148441308</v>
+        <v>0.2579795182972475</v>
       </c>
       <c r="N20">
-        <v>1.639064088550946</v>
+        <v>0.7631636603118608</v>
       </c>
       <c r="O20">
-        <v>1.739260383119159</v>
+        <v>1.101997520830167</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6752701990774028</v>
+        <v>1.046888394129667</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03899016766244756</v>
+        <v>0.109315498560008</v>
       </c>
       <c r="E21">
-        <v>0.3237430267366017</v>
+        <v>0.120320748365371</v>
       </c>
       <c r="F21">
-        <v>0.5428794440754316</v>
+        <v>0.485446800512797</v>
       </c>
       <c r="G21">
-        <v>0.375724712700034</v>
+        <v>0.3346694642803385</v>
       </c>
       <c r="H21">
-        <v>0.5248002093655515</v>
+        <v>0.2434359869660625</v>
       </c>
       <c r="I21">
-        <v>0.8787899084537081</v>
+        <v>0.3146519697066026</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6203099550276079</v>
+        <v>1.850505823810323</v>
       </c>
       <c r="L21">
-        <v>0.1591160204106359</v>
+        <v>0.2992204932469207</v>
       </c>
       <c r="M21">
-        <v>0.1733097711361538</v>
+        <v>0.2893243677037063</v>
       </c>
       <c r="N21">
-        <v>1.622884858702182</v>
+        <v>0.7270991029862621</v>
       </c>
       <c r="O21">
-        <v>1.741873432910864</v>
+        <v>1.170163440795449</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6951617974943929</v>
+        <v>1.120529835990425</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04138792157432647</v>
+        <v>0.1167969826004054</v>
       </c>
       <c r="E22">
-        <v>0.3220744400723587</v>
+        <v>0.1178473162071771</v>
       </c>
       <c r="F22">
-        <v>0.5468306819330166</v>
+        <v>0.5114922002142848</v>
       </c>
       <c r="G22">
-        <v>0.377932674667548</v>
+        <v>0.3521006936432656</v>
       </c>
       <c r="H22">
-        <v>0.5237131290091952</v>
+        <v>0.2480822893891883</v>
       </c>
       <c r="I22">
-        <v>0.8729026711131382</v>
+        <v>0.3072640890778864</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6592556127808393</v>
+        <v>1.972739984654027</v>
       </c>
       <c r="L22">
-        <v>0.1648826959495295</v>
+        <v>0.3210030768421035</v>
       </c>
       <c r="M22">
-        <v>0.1788350546534332</v>
+        <v>0.3099441603942026</v>
       </c>
       <c r="N22">
-        <v>1.612751398853675</v>
+        <v>0.7045169353427774</v>
       </c>
       <c r="O22">
-        <v>1.744430943112889</v>
+        <v>1.217064748967715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6845303705126469</v>
+        <v>1.08118558200016</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04010918734162772</v>
+        <v>0.1128033923277485</v>
       </c>
       <c r="E23">
-        <v>0.32295775055674</v>
+        <v>0.1191560970760586</v>
       </c>
       <c r="F23">
-        <v>0.5446967145265802</v>
+        <v>0.4975138724174712</v>
       </c>
       <c r="G23">
-        <v>0.3767343559356391</v>
+        <v>0.342729743836685</v>
       </c>
       <c r="H23">
-        <v>0.5242760524744767</v>
+        <v>0.24556332983083</v>
       </c>
       <c r="I23">
-        <v>0.8760156122834886</v>
+        <v>0.3111458858448906</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6384848441245197</v>
+        <v>1.907493163597422</v>
       </c>
       <c r="L23">
-        <v>0.1618006894324537</v>
+        <v>0.3093601123959218</v>
       </c>
       <c r="M23">
-        <v>0.1758819797384987</v>
+        <v>0.2989259136842506</v>
       </c>
       <c r="N23">
-        <v>1.618119517619249</v>
+        <v>0.716476943365695</v>
       </c>
       <c r="O23">
-        <v>1.742988244195459</v>
+        <v>1.191808028129827</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6445962793190745</v>
+        <v>0.9330211860114161</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03524461183008043</v>
+        <v>0.09768813141977972</v>
       </c>
       <c r="E24">
-        <v>0.3264625285832112</v>
+        <v>0.1243599124017614</v>
       </c>
       <c r="F24">
-        <v>0.5371668999390096</v>
+        <v>0.4462130711965315</v>
       </c>
       <c r="G24">
-        <v>0.372632814139223</v>
+        <v>0.3086688583234292</v>
       </c>
       <c r="H24">
-        <v>0.5267878052956263</v>
+        <v>0.2368590955196197</v>
       </c>
       <c r="I24">
-        <v>0.8884468192003467</v>
+        <v>0.3271660835859898</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5594880069149895</v>
+        <v>1.660508702576891</v>
       </c>
       <c r="L24">
-        <v>0.1502215243756382</v>
+        <v>0.2656228374784178</v>
       </c>
       <c r="M24">
-        <v>0.1647891576255205</v>
+        <v>0.257469292204302</v>
       </c>
       <c r="N24">
-        <v>1.639335971529004</v>
+        <v>0.7637693373981591</v>
       </c>
       <c r="O24">
-        <v>1.739232028898101</v>
+        <v>1.100921002559403</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6022482873418369</v>
+        <v>0.7747505405457957</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02995270840730768</v>
+        <v>0.08138691866332692</v>
       </c>
       <c r="E25">
-        <v>0.3305847843904646</v>
+        <v>0.1304882531110891</v>
       </c>
       <c r="F25">
-        <v>0.5302273898821994</v>
+        <v>0.3940111824753529</v>
       </c>
       <c r="G25">
-        <v>0.3691418976346128</v>
+        <v>0.2746529325213558</v>
       </c>
       <c r="H25">
-        <v>0.5303105559065102</v>
+        <v>0.2291104907270949</v>
       </c>
       <c r="I25">
-        <v>0.9032275481610483</v>
+        <v>0.3470969697049604</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4735984941340803</v>
+        <v>1.394059051466542</v>
       </c>
       <c r="L25">
-        <v>0.1379353684738192</v>
+        <v>0.219095650191548</v>
       </c>
       <c r="M25">
-        <v>0.1530243452957123</v>
+        <v>0.2132502372171636</v>
       </c>
       <c r="N25">
-        <v>1.664114718373067</v>
+        <v>0.8188207787960877</v>
       </c>
       <c r="O25">
-        <v>1.738832734297404</v>
+        <v>1.012065701017661</v>
       </c>
     </row>
   </sheetData>
